--- a/TargetProcessingTimeCalculation.xlsx
+++ b/TargetProcessingTimeCalculation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Total Number of data sets:</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>Sample size=</t>
+  </si>
+  <si>
+    <t>Single Data set</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>Non Parallel</t>
   </si>
 </sst>
 </file>
@@ -109,13 +124,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -431,18 +447,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -458,7 +474,8 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <f>92/500</f>
+        <v>0.184</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -492,7 +509,7 @@
         <f>B5*60</f>
         <v>1440</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -506,8 +523,12 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3">
+        <v>66.23</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -517,7 +538,9 @@
         <f>B7*B3</f>
         <v>86400</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="11" spans="1:6">
@@ -538,11 +561,49 @@
       </c>
       <c r="B12">
         <f>B11/B2</f>
-        <v>44.081632653061227</v>
+        <v>167.70186335403727</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <f>12*60</f>
+        <v>720</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <f>B19*60/B18</f>
+        <v>216000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TargetProcessingTimeCalculation.xlsx
+++ b/TargetProcessingTimeCalculation.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\SALES\Fundos de Mercado\Pedro Mattos\Notebooks\Nowcasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PedroBraz2/Documents/Repos/Nowcasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25120" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" calcMode="manual" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Total Number of data sets:</t>
   </si>
@@ -68,21 +71,32 @@
     <t>Sample Size</t>
   </si>
   <si>
-    <t>Parallel</t>
-  </si>
-  <si>
-    <t>Non Parallel</t>
+    <t>Average Parallel Posterior Per Sample Unit</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>NSAOT002</t>
+  </si>
+  <si>
+    <t>NSAOT001</t>
+  </si>
+  <si>
+    <t># Processors=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="197" formatCode="0.000000000000000000000000000000000000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +116,22 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,21 +150,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,21 +484,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,30 +506,30 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>92/500</f>
-        <v>0.184</v>
+        <v>0.4</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <f>1/24</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -501,7 +538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -509,9 +546,8 @@
         <f>B5*60</f>
         <v>1440</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -519,93 +555,125 @@
         <f>B6*60</f>
         <v>86400</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3">
-        <v>66.23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <f>352.3/1000</f>
+        <v>0.3523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <f>B7*B3</f>
-        <v>86400</v>
+        <v>3600</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <f>198/1000</f>
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3">
+        <f>356/1000</f>
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3">
+        <f>346/1000</f>
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <f>B9/B1</f>
-        <v>30.857142857142858</v>
-      </c>
-      <c r="C11" t="s">
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="C13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <f>B11/B2</f>
-        <v>167.70186335403727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B14">
+        <f>B13/B2*B11</f>
+        <v>64.285714285714292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <f>0.2</f>
         <v>0.2</v>
       </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <f>12*60</f>
         <v>720</v>
       </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B21">
-        <f>B19*60/B18</f>
+      <c r="B23">
+        <f>B21*60/B20</f>
         <v>216000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>